--- a/data/eodatabase.xlsx
+++ b/data/eodatabase.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eumetsatint-my.sharepoint.com/personal/annalena_erdmann_eumetsat_int/Documents/Visual Studio/eodata_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eumetsatint-my.sharepoint.com/personal/annalena_erdmann_eumetsat_int/Documents/Visual Studio/eodata_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="927" documentId="11_CADFC6551B27E4822CA658FB0D085E437E081614" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F593AF-4F59-4041-B82A-E4D414E2D057}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eodatabase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="135">
   <si>
     <t>satellite</t>
   </si>
@@ -132,16 +144,319 @@
   </si>
   <si>
     <t>S3A_OL_1_EFR____20230220T063049_20230220T063312_20230220T083722_0143_095_348_1800_PS1_O_NR_003</t>
+  </si>
+  <si>
+    <t>OL_2_WFR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>EUM</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WFR____20210215T012122_20210215T012422_20210216T090335_0179_068_259_4140_MAR_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WFR____20210215T012422_20210215T012720_20210216T151955_0178_068_259_4320_MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WFR____20220131T230413_20220131T230430_20220201T013107_0017_081_258_1800_MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>OL_2_WFR___</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WFR____20230220T063312_20230220T063612_20230221T183950_0179_095_348_1980_MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WFR____20230220T063612_20230220T063912_20230220T084124_0179_095_348_2160_MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>SLSTR</t>
+  </si>
+  <si>
+    <t>SL_0_SLT</t>
+  </si>
+  <si>
+    <t>S3A_SL_0_SLT____20230217T173928_20230217T174420_20230217T194102_0291_095_312______PS1_O_NR_004</t>
+  </si>
+  <si>
+    <t>SL_1_RBT</t>
+  </si>
+  <si>
+    <t>LR1</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20160419T001933_20160419T002233_20181001T061326_0179_003_145______LR1_R_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20180403T071924_20180403T072224_20180404T142811_0179_029_320_1620_LN2_O_NT_003</t>
+  </si>
+  <si>
+    <t>LN2</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20180501T000141_20180501T000319_20201218T180153_0098_030_330_1080_LR1_R_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20200114T073855_20200114T074155_20200115T195718_0179_053_363_1440_LN2_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3B_SL_1_RBT____20220131T230058_20220131T230358_20220201T005006_0179_062_115_4140_LN2_O_NR_004</t>
+  </si>
+  <si>
+    <t>SL_1_RBT___</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20230220T061512_20230220T061812_20230220T085459_0180_095_348_0900_PS1_O_NR_004</t>
+  </si>
+  <si>
+    <t>S3A_SL_1_RBT____20230220T061512_20230220T061812_20230221T153700_0179_095_348_0900_PS1_O_NT_004</t>
+  </si>
+  <si>
+    <t>SL_2_AOD___</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_AOD____20220131T230017_20220131T230515_20220201T011434_0299_081_258______MAR_O_NR_002</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_AOD____20221103T081602_20221103T082101_20221103T105207_0299_091_335______MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_FRP____20200817T190153_20200817T190453_20200819T013222_0179_061_370_0000_LN2_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_FRP____20220131T230015_20220131T230515_20220201T011349_0299_081_258______MAR_O_NR_002</t>
+  </si>
+  <si>
+    <t>SL_2_FRP___</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_FRP____20220404T013159_20220404T013459_20220405T095917_0179_083_373_5220_PS1_O_NT_004</t>
+  </si>
+  <si>
+    <t>SL_2_WST</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_WST____20171101T005027_20171101T023126_20171102T082738_6059_024_059_4545_MAR_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_WST____20220131T230130_20220131T230430_20220201T011323_0180_081_258_1800_MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_WST____20220131T220613_20220131T234712_20220202T090807_6059_081_257______MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>SL_2_WST___</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_WST____20230220T053454_20230220T071554_20230221T161136_6059_095_347______MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SL_2_WST____20230220T061512_20230220T061812_20230220T085149_0180_095_348_0900_MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>SRAL</t>
+  </si>
+  <si>
+    <t>SR_0_SRA</t>
+  </si>
+  <si>
+    <t>S3A_SR_0_SRA____20230217T173428_20230217T174420_20230217T194103_0592_095_312______PS1_O_NR_004</t>
+  </si>
+  <si>
+    <t>SR_1_SRA</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20160301T092017_20160301T093000_20180202T230137_0583_001_221______LR1_R_NT_003</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20160615T001643_20160615T010712_20170624T111206_3029_005_187______MR1_R_NT_002</t>
+  </si>
+  <si>
+    <t>LN3</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20170416T000918_20170416T005947_20170511T202302_3029_016_301______LN3_O_NT_002</t>
+  </si>
+  <si>
+    <t>STC</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20180731T004840_20180731T013910_20180801T161617_3029_034_088______LN3_O_ST_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20200614T001508_20200614T010537_20200709T195752_3029_059_216______LN3_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20200709T001700_20200709T010730_20200710T155429_3029_060_187______LN3_O_ST_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20220201T000015_20220201T001015_20220201T010036_0599_081_258______LN3_O_NR_004</t>
+  </si>
+  <si>
+    <t>SR_1_SRA___</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20230218T190441_20230218T195510_20230317T233308_3028_095_327______PS1_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20230218T190441_20230218T195510_20230220T085236_3028_095_327______PS1_O_ST_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA____20230220T062440_20230220T063440_20230220T083730_0599_095_348______PS1_O_NR_004</t>
+  </si>
+  <si>
+    <t>SR_1_SRA_A</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20160301T092105_20160301T092552_20180202T230137_0287_001_221______LR1_R_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20170416T000918_20170416T005947_20170511T202302_3029_016_301______LN3_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20180201T001455_20180201T010525_20180226T224911_3029_027_216______LN3_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20180730T230741_20180730T235811_20180801T162005_3029_034_087______LN3_O_ST_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20200614T001508_20200614T010537_20200709T195752_3029_059_216______LN3_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20200708T004311_20200708T013341_20200709T143803_3029_060_173______LN3_O_ST_004</t>
+  </si>
+  <si>
+    <t>SR_1_SRA_A_</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20230124T062526_20230124T071556_20230220T092834_3029_094_348______PS1_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20230803T003002_20230803T012031_20230804T141543_3029_101_373______PS1_O_ST_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20230825T083422_20230825T092451_20230920T111915_3029_102_306______PS1_O_NT_005</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20230919T001121_20230919T010151_20230920T130153_3029_103_273______PS1_O_ST_005</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_A__20230921T000241_20230921T001241_20230921T012457_0599_103_301______PS1_O_NR_005</t>
+  </si>
+  <si>
+    <t>SR_2_SRA_BS</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20160301T092105_20160301T092552_20180202T230137_0287_001_221______LR1_R_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20170416T000918_20170416T005947_20170511T202302_3029_016_301______LN3_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20180201T001455_20180201T010525_20180226T224911_3029_027_216______LN3_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20180731T004840_20180731T013910_20180801T161617_3029_034_088______LN3_O_ST_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20200708T004311_20200708T013341_20200802T213301_3029_060_173______LN3_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_1_SRA_BS_20200708T004311_20200708T013341_20200709T143803_3029_060_173______LN3_O_ST_004</t>
+  </si>
+  <si>
+    <t>SR_2_WAT</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20170102T083415_20170102T092056_20170128T021926_2801_012_363______MAR_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20170126T095215_20170126T103929_20170128T031710_2834_013_321______MAR_O_ST_002</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20170128T003617_20170128T004505_20170128T020408_0528_013_344______MAR_O_NR_002</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20171116T170110_20171116T174924_20171213T211525_2893_024_283______MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20180717T000448_20180717T000527_20180717T021700_0038_033_273______MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20180717T001118_20180717T005531_20180718T162745_2653_033_273______MAR_O_ST_003</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20200101T022703_20200101T031432_20200126T185951_2849_053_174______MAR_O_NT_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20200120T000005_20200120T004431_20200121T182738_2666_054_059______MAR_O_ST_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20220613T001514_20220613T005934_20220708T183416_2660_086_216______MAR_O_NT_005</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20200122T000311_20200122T001119_20200122T013357_0488_054_087______MAR_O_NR_004</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20220706T001858_20220706T010315_20220707T163249_2657_087_159______MAR_O_ST_005</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20220708T002153_20220708T003021_20220708T015719_0508_087_187______MAR_O_NR_005</t>
+  </si>
+  <si>
+    <t>SR_2_WAT___</t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20220708T002153_20220708T010734_20220802T184140_2741_087_187______MAR_O_NT_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3A_SR_2_WAT____20230218T163933_20230218T172341_20230220T084642_2648_095_325______MAR_O_ST_005 </t>
+  </si>
+  <si>
+    <t>S3A_SR_2_WAT____20230220T062441_20230220T063145_20230220T085248_0424_095_348______MAR_O_NR_005</t>
+  </si>
+  <si>
+    <t>OL_2_WRR</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WRR____20171101T000622_20171101T005039_20171102T062639_2657_024_059______MAR_O_NT_002</t>
+  </si>
+  <si>
+    <t>S3B_OL_2_WRR____20210215T050701_20210215T055047_20210216T110406_2626_049_119______MAR_O_NT_003</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WRR____20220131T230413_20220131T234800_20220201T012750_2627_081_258______MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>OL_2_WRR___</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WRR____20230221T110727_20230221T115114_20230221T133737_2627_095_365______MAR_O_NR_003</t>
+  </si>
+  <si>
+    <t>S3A_OL_2_WRR____20230221T092628_20230221T101015_20230222T140346_2627_095_364______MAR_O_NT_003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,6 +500,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +1155,2918 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43040</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44242</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44242</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44975</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44968</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43040</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44242</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44242</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44976</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44976</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44978</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44974</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44975</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42479</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43193</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43844</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43221</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43846</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43844</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44868</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44869</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44655</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44655</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1">
+        <v>43039</v>
+      </c>
+      <c r="G33" s="1">
+        <v>43192</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43193</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44974</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44975</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42430</v>
+      </c>
+      <c r="G39" s="1">
+        <v>43131</v>
+      </c>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42505</v>
+      </c>
+      <c r="G40" s="1">
+        <v>42840</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42841</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43996</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="1">
+        <v>43312</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44020</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="1">
+        <v>43997</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44592</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44975</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45189</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44975</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45189</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45189</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="1">
+        <v>42430</v>
+      </c>
+      <c r="G49" s="1">
+        <v>43132</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1">
+        <v>42841</v>
+      </c>
+      <c r="G50" s="1">
+        <v>43131</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1">
+        <v>43132</v>
+      </c>
+      <c r="G51" s="1">
+        <v>43995</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
+        <v>43311</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44019</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43996</v>
+      </c>
+      <c r="G53" s="1">
+        <v>44944</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44020</v>
+      </c>
+      <c r="G54" s="1">
+        <v>44975</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44950</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45163</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45141</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45187</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45163</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45188</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45189</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>42430</v>
+      </c>
+      <c r="G60" s="1">
+        <v>43131</v>
+      </c>
+      <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="1">
+        <v>42841</v>
+      </c>
+      <c r="G61" s="1">
+        <v>43131</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="1">
+        <v>43132</v>
+      </c>
+      <c r="G62" s="1">
+        <v>43996</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="1">
+        <v>43312</v>
+      </c>
+      <c r="G63" s="1">
+        <v>44020</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>82</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="1">
+        <v>43996</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45156</v>
+      </c>
+      <c r="H64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44020</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45187</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1">
+        <v>42737</v>
+      </c>
+      <c r="G66" s="1">
+        <v>43055</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="1">
+        <v>42761</v>
+      </c>
+      <c r="G67" s="1">
+        <v>43039</v>
+      </c>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>82</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="1">
+        <v>42763</v>
+      </c>
+      <c r="G68" s="1">
+        <v>43039</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="1">
+        <v>43055</v>
+      </c>
+      <c r="G69" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="1">
+        <v>43297</v>
+      </c>
+      <c r="G70" s="1">
+        <v>43850</v>
+      </c>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1">
+        <v>43297</v>
+      </c>
+      <c r="G71" s="1">
+        <v>43850</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>82</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1">
+        <v>43831</v>
+      </c>
+      <c r="G72" s="1">
+        <v>44725</v>
+      </c>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="1">
+        <v>43850</v>
+      </c>
+      <c r="G73" s="1">
+        <v>44748</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1">
+        <v>43852</v>
+      </c>
+      <c r="G74" s="1">
+        <v>44749</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G75" s="1">
+        <v>44946</v>
+      </c>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" t="s">
+        <v>38</v>
+      </c>
+      <c r="M75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44748</v>
+      </c>
+      <c r="G76" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44750</v>
+      </c>
+      <c r="G77" s="1">
+        <v>44977</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44975</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>82</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44977</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1067,20 +4294,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="68491a65-4e5a-41c5-a687-17f9021486d4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="68491a65-4e5a-41c5-a687-17f9021486d4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,26 +4330,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6D6225-C867-4839-8114-88ECCCFA8749}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="db075762-8333-4cf5-b8bc-3cb06dc032eb"/>
+    <ds:schemaRef ds:uri="68491a65-4e5a-41c5-a687-17f9021486d4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C803EB-3F26-429A-B5D1-5340930BBF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6D6225-C867-4839-8114-88ECCCFA8749}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="db075762-8333-4cf5-b8bc-3cb06dc032eb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="68491a65-4e5a-41c5-a687-17f9021486d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>